--- a/yabin/Features.xlsx
+++ b/yabin/Features.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C5D94-B6C4-4BF7-BDD4-92536E8D96FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468A1D7-921A-47E0-93EA-6EA39719F3A3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>字段名称</t>
   </si>
@@ -271,97 +271,100 @@
     <t>Class label</t>
   </si>
   <si>
-    <t>ip_prov=cert_prov</t>
-  </si>
-  <si>
-    <t>ip_prov=card_bin_prov</t>
-  </si>
-  <si>
-    <t>ip_prov=card_mobile_prov</t>
-  </si>
-  <si>
-    <t>ip_prov=card_cert_prov</t>
-  </si>
-  <si>
-    <t>ip_prov=province</t>
-  </si>
-  <si>
-    <t>cert_prov=card_bin_prov</t>
-  </si>
-  <si>
-    <t>cert_prov=card_mobile_prov</t>
-  </si>
-  <si>
-    <t>cert_prov=card_cert_prov</t>
-  </si>
-  <si>
-    <t>cert_prov=province</t>
-  </si>
-  <si>
-    <t>card_bin_prov=card_mobile_prov</t>
-  </si>
-  <si>
-    <t>card_bin_prov=card_cert_prov</t>
-  </si>
-  <si>
-    <t>card_bin_prov=province</t>
-  </si>
-  <si>
-    <t>card_mobile_prov=card_cert_prov</t>
-  </si>
-  <si>
-    <t>card_mobile_prov=province</t>
-  </si>
-  <si>
-    <t>card_cert_prov=province</t>
-  </si>
-  <si>
-    <t>ip_city=cert_city</t>
-  </si>
-  <si>
-    <t>ip_city=card_bin_city</t>
-  </si>
-  <si>
-    <t>ip_city=card_mobile_city</t>
-  </si>
-  <si>
-    <t>ip_city=card_cert_city</t>
-  </si>
-  <si>
-    <t>ip_city=city</t>
-  </si>
-  <si>
-    <t>cert_city=card_bin_city</t>
-  </si>
-  <si>
-    <t>cert_city=card_mobile_city</t>
-  </si>
-  <si>
-    <t>cert_city=card_cert_city</t>
-  </si>
-  <si>
-    <t>cert_city=city</t>
-  </si>
-  <si>
-    <t>card_bin_city=card_mobile_city</t>
-  </si>
-  <si>
-    <t>card_bin_city=card_cert_city</t>
-  </si>
-  <si>
-    <t>card_bin_city=city</t>
-  </si>
-  <si>
-    <t>card_mobile_city=card_cert_city</t>
-  </si>
-  <si>
-    <t>card_mobile_city=city</t>
-  </si>
-  <si>
-    <t>card_cert_city=city</t>
-  </si>
-  <si>
     <t>some personal information of the user</t>
+  </si>
+  <si>
+    <t>ip_prov_vs_cert_prov</t>
+  </si>
+  <si>
+    <t>ip_prov_vs_card_bin_prov</t>
+  </si>
+  <si>
+    <t>ip_prov_vs_card_mobile_prov</t>
+  </si>
+  <si>
+    <t>ip_prov_vs_card_cert_prov</t>
+  </si>
+  <si>
+    <t>ip_prov_vs_province</t>
+  </si>
+  <si>
+    <t>cert_prov_vs_card_bin_prov</t>
+  </si>
+  <si>
+    <t>cert_prov_vs_card_mobile_prov</t>
+  </si>
+  <si>
+    <t>cert_prov_vs_card_cert_prov</t>
+  </si>
+  <si>
+    <t>cert_prov_vs_province</t>
+  </si>
+  <si>
+    <t>card_bin_prov_vs_card_mobile_prov</t>
+  </si>
+  <si>
+    <t>card_bin_prov_vs_card_cert_prov</t>
+  </si>
+  <si>
+    <t>card_bin_prov_vs_province</t>
+  </si>
+  <si>
+    <t>card_mobile_prov_vs_card_cert_prov</t>
+  </si>
+  <si>
+    <t>card_mobile_prov_vs_province</t>
+  </si>
+  <si>
+    <t>card_cert_prov_vs_province</t>
+  </si>
+  <si>
+    <t>ip_city_vs_cert_city</t>
+  </si>
+  <si>
+    <t>ip_city_vs_card_bin_city</t>
+  </si>
+  <si>
+    <t>ip_city_vs_card_mobile_city</t>
+  </si>
+  <si>
+    <t>ip_city_vs_card_cert_city</t>
+  </si>
+  <si>
+    <t>ip_city_vs_city</t>
+  </si>
+  <si>
+    <t>cert_city_vs_card_bin_city</t>
+  </si>
+  <si>
+    <t>cert_city_vs_card_mobile_city</t>
+  </si>
+  <si>
+    <t>cert_city_vs_card_cert_city</t>
+  </si>
+  <si>
+    <t>cert_city_vs_city</t>
+  </si>
+  <si>
+    <t>card_bin_city_vs_card_mobile_city</t>
+  </si>
+  <si>
+    <t>card_bin_city_vs_card_cert_city</t>
+  </si>
+  <si>
+    <t>card_bin_city_vs_city</t>
+  </si>
+  <si>
+    <t>card_mobile_city_vs_card_cert_city</t>
+  </si>
+  <si>
+    <t>card_mobile_city_vs_city</t>
+  </si>
+  <si>
+    <t>card_cert_city_vs_city</t>
+  </si>
+  <si>
+    <t>indicate whether ip_prov is same as cert_prov</t>
   </si>
 </sst>
 </file>
@@ -406,11 +409,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,13 +811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="119.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
@@ -901,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>79</v>
@@ -915,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
@@ -1224,152 +1234,155 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
